--- a/ocms/src/test/resources/TestData/UserManagementReportAccessData.xlsx
+++ b/ocms/src/test/resources/TestData/UserManagementReportAccessData.xlsx
@@ -4,15 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14670" windowHeight="4575"/>
+    <workbookView xWindow="4800" yWindow="1590" windowWidth="14670" windowHeight="4575"/>
   </bookViews>
   <sheets>
-    <sheet name="Create" sheetId="1" r:id="rId1"/>
-    <sheet name="Edit" sheetId="4" r:id="rId2"/>
-    <sheet name="Delete" sheetId="3" r:id="rId3"/>
+    <sheet name="ReportsAccess" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K13"/>
+  <oleSize ref="A1:L13"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,33 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
-  <si>
-    <t>Delete Reason</t>
-  </si>
-  <si>
-    <t>Deleted</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>User ID</t>
   </si>
   <si>
-    <t>Modify Reason</t>
+    <t>BENGTETH\PALAK</t>
   </si>
   <si>
-    <t>Modified</t>
+    <t>Report Name</t>
   </si>
   <si>
-    <t>BENGTETH\PALAKADMIN</t>
-  </si>
-  <si>
-    <t>Updated User ID</t>
-  </si>
-  <si>
-    <t>BENGTETH\PALAKADMINUpdated</t>
-  </si>
-  <si>
-    <t>BENGTETH\PALAK</t>
+    <t>Report Channel</t>
   </si>
 </sst>
 </file>
@@ -376,111 +359,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="28.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>